--- a/Code/Results/Cases/Case_4_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_120/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.281286958730959</v>
+        <v>1.501692279645511</v>
       </c>
       <c r="C2">
-        <v>0.3600316787649831</v>
+        <v>0.1124359296681519</v>
       </c>
       <c r="D2">
-        <v>0.2196648595519264</v>
+        <v>0.4602920812456688</v>
       </c>
       <c r="E2">
-        <v>0.04810537425665196</v>
+        <v>0.1374608553934742</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008166871485758409</v>
+        <v>0.002515614509111651</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5299568679594486</v>
+        <v>1.245871032244658</v>
       </c>
       <c r="J2">
-        <v>0.04372395142995344</v>
+        <v>0.05277358531352405</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2702307990131203</v>
+        <v>0.4573435427471964</v>
       </c>
       <c r="M2">
-        <v>0.4499619638758432</v>
+        <v>0.4109732708810228</v>
       </c>
       <c r="N2">
-        <v>0.9212185852772095</v>
+        <v>1.839380720024081</v>
       </c>
       <c r="O2">
-        <v>2.864285070709457</v>
+        <v>5.663734183809282</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.991638073889305</v>
+        <v>1.423870602517582</v>
       </c>
       <c r="C3">
-        <v>0.3160210327204709</v>
+        <v>0.09873227098901793</v>
       </c>
       <c r="D3">
-        <v>0.2098039503351004</v>
+        <v>0.4604055823394049</v>
       </c>
       <c r="E3">
-        <v>0.04898089869846878</v>
+        <v>0.1382565314790041</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008214664965948633</v>
+        <v>0.002518857635303794</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5284211792116373</v>
+        <v>1.254432228943763</v>
       </c>
       <c r="J3">
-        <v>0.04120679489762935</v>
+        <v>0.05188228727547894</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2493998253893324</v>
+        <v>0.4541975564808354</v>
       </c>
       <c r="M3">
-        <v>0.3969720996098829</v>
+        <v>0.3979044180125655</v>
       </c>
       <c r="N3">
-        <v>0.9637325723295334</v>
+        <v>1.85773601711918</v>
       </c>
       <c r="O3">
-        <v>2.758738730122673</v>
+        <v>5.678321474904408</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.814695445558073</v>
+        <v>1.376568396255436</v>
       </c>
       <c r="C4">
-        <v>0.2890244948263501</v>
+        <v>0.09027729789096384</v>
       </c>
       <c r="D4">
-        <v>0.2040294761766717</v>
+        <v>0.4606569422611955</v>
       </c>
       <c r="E4">
-        <v>0.04956228970515664</v>
+        <v>0.1387783211297791</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008245005383532518</v>
+        <v>0.002520957021512313</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5285334439836866</v>
+        <v>1.260275576457769</v>
       </c>
       <c r="J4">
-        <v>0.03965765771873109</v>
+        <v>0.05132687694776195</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2368822983981005</v>
+        <v>0.4524421558532481</v>
       </c>
       <c r="M4">
-        <v>0.3646967081112962</v>
+        <v>0.3900332372893729</v>
       </c>
       <c r="N4">
-        <v>0.9910293208711636</v>
+        <v>1.869622494322012</v>
       </c>
       <c r="O4">
-        <v>2.699365991763045</v>
+        <v>5.690166051093229</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.742785352095694</v>
+        <v>1.357414485448572</v>
       </c>
       <c r="C5">
-        <v>0.2780249341046073</v>
+        <v>0.08682165277384968</v>
       </c>
       <c r="D5">
-        <v>0.2017436489661861</v>
+        <v>0.4608051330775425</v>
       </c>
       <c r="E5">
-        <v>0.04981006660319665</v>
+        <v>0.1389993278085297</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008257624293693883</v>
+        <v>0.002521839801745741</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5288333039462536</v>
+        <v>1.262804328537559</v>
       </c>
       <c r="J5">
-        <v>0.03902520038872836</v>
+        <v>0.05109849519933718</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2318458320963757</v>
+        <v>0.4517712541051893</v>
       </c>
       <c r="M5">
-        <v>0.3516031069238466</v>
+        <v>0.3868644180382148</v>
       </c>
       <c r="N5">
-        <v>1.002445933344131</v>
+        <v>1.874621350817119</v>
       </c>
       <c r="O5">
-        <v>2.676466972348436</v>
+        <v>5.695719031355821</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.730855653854348</v>
+        <v>1.354241406415468</v>
       </c>
       <c r="C6">
-        <v>0.2761984354133631</v>
+        <v>0.08624723402621726</v>
       </c>
       <c r="D6">
-        <v>0.2013680664498878</v>
+        <v>0.4608325060948317</v>
       </c>
       <c r="E6">
-        <v>0.04985186079772497</v>
+        <v>0.1390365319400955</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008259735186537197</v>
+        <v>0.002521988035915427</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5288981260031953</v>
+        <v>1.263233137016528</v>
       </c>
       <c r="J6">
-        <v>0.03892010307801641</v>
+        <v>0.05106044897116035</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2310133135021673</v>
+        <v>0.4516625388640136</v>
       </c>
       <c r="M6">
-        <v>0.3494322938848882</v>
+        <v>0.3863405855652999</v>
       </c>
       <c r="N6">
-        <v>1.004359149473881</v>
+        <v>1.875460771803013</v>
       </c>
       <c r="O6">
-        <v>2.672740887996582</v>
+        <v>5.696684962341436</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.813724889851756</v>
+        <v>1.376309583767323</v>
       </c>
       <c r="C7">
-        <v>0.2888761499991688</v>
+        <v>0.09023073491309219</v>
       </c>
       <c r="D7">
-        <v>0.203998380163938</v>
+        <v>0.4606587554329877</v>
       </c>
       <c r="E7">
-        <v>0.04956558756702467</v>
+        <v>0.1387812677813294</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000824517452856571</v>
+        <v>0.00252096881655639</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5285364735197042</v>
+        <v>1.260309082708137</v>
       </c>
       <c r="J7">
-        <v>0.03964913326256081</v>
+        <v>0.0513238051997007</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2368141187885513</v>
+        <v>0.452432927750209</v>
       </c>
       <c r="M7">
-        <v>0.3645198933155953</v>
+        <v>0.3899903442650512</v>
       </c>
       <c r="N7">
-        <v>0.9911821120856672</v>
+        <v>1.869689282898449</v>
       </c>
       <c r="O7">
-        <v>2.699052010958297</v>
+        <v>5.690238000064653</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.181208924553516</v>
+        <v>1.474760345682682</v>
       </c>
       <c r="C8">
-        <v>0.3448483576624426</v>
+        <v>0.1077194484501263</v>
       </c>
       <c r="D8">
-        <v>0.2162047310018522</v>
+        <v>0.4602935561894128</v>
       </c>
       <c r="E8">
-        <v>0.04839806117235756</v>
+        <v>0.1377283139260443</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008183147082913576</v>
+        <v>0.00251671035379488</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5292014188568217</v>
+        <v>1.248701154871959</v>
       </c>
       <c r="J8">
-        <v>0.04285661426146348</v>
+        <v>0.05246795807444826</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2629891413453151</v>
+        <v>0.4562222960473861</v>
       </c>
       <c r="M8">
-        <v>0.4316328333220554</v>
+        <v>0.4064354838739348</v>
       </c>
       <c r="N8">
-        <v>0.9356254668456252</v>
+        <v>1.845581760175705</v>
       </c>
       <c r="O8">
-        <v>2.826721482719876</v>
+        <v>5.668164498895976</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.91056563817159</v>
+        <v>1.671590539382919</v>
       </c>
       <c r="C9">
-        <v>0.4550563258866589</v>
+        <v>0.1416875575050085</v>
       </c>
       <c r="D9">
-        <v>0.2425153117574865</v>
+        <v>0.4610159011814545</v>
       </c>
       <c r="E9">
-        <v>0.04646387820253128</v>
+        <v>0.1359265810849237</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000806917965201357</v>
+        <v>0.002509213436662387</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5394151003146845</v>
+        <v>1.230593959584411</v>
       </c>
       <c r="J9">
-        <v>0.049131226712543</v>
+        <v>0.05464698556870218</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3166803288912803</v>
+        <v>0.4650472539212558</v>
       </c>
       <c r="M9">
-        <v>0.5656351430019271</v>
+        <v>0.4398909193712299</v>
       </c>
       <c r="N9">
-        <v>0.8364776441422741</v>
+        <v>1.803193495740185</v>
       </c>
       <c r="O9">
-        <v>3.12357402106673</v>
+        <v>5.647797076676113</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.454111539671317</v>
+        <v>1.81845450742037</v>
       </c>
       <c r="C10">
-        <v>0.5366635390027454</v>
+        <v>0.1664428960120574</v>
       </c>
       <c r="D10">
-        <v>0.2635181703269183</v>
+        <v>0.4624201946827355</v>
       </c>
       <c r="E10">
-        <v>0.04527068888321484</v>
+        <v>0.1347623468544104</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007989786196953526</v>
+        <v>0.00250422075908031</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5531477304840635</v>
+        <v>1.220130175184977</v>
       </c>
       <c r="J10">
-        <v>0.05375219439960333</v>
+        <v>0.0562086517862781</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3578647326953188</v>
+        <v>0.4723760342987049</v>
       </c>
       <c r="M10">
-        <v>0.6660411414960805</v>
+        <v>0.465197550793512</v>
       </c>
       <c r="N10">
-        <v>0.7700957367862422</v>
+        <v>1.775024727597479</v>
       </c>
       <c r="O10">
-        <v>3.375056390658131</v>
+        <v>5.646818951898439</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.703628452145438</v>
+        <v>1.885747469606599</v>
       </c>
       <c r="C11">
-        <v>0.5740162975518786</v>
+        <v>0.1776609021820832</v>
       </c>
       <c r="D11">
-        <v>0.2734900182554867</v>
+        <v>0.4632480702198478</v>
       </c>
       <c r="E11">
-        <v>0.04478001712166435</v>
+        <v>0.1342671503615547</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007954530431339021</v>
+        <v>0.002502060236388104</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5609387979147158</v>
+        <v>1.215986848062244</v>
       </c>
       <c r="J11">
-        <v>0.05586175548767613</v>
+        <v>0.05691060728812403</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3770496028503771</v>
+        <v>0.4758926662656648</v>
       </c>
       <c r="M11">
-        <v>0.7122626170706994</v>
+        <v>0.476866396477611</v>
       </c>
       <c r="N11">
-        <v>0.7414171591762333</v>
+        <v>1.762854751323491</v>
       </c>
       <c r="O11">
-        <v>3.497924349601533</v>
+        <v>5.649414522001308</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.798489359512075</v>
+        <v>1.911298077970287</v>
       </c>
       <c r="C12">
-        <v>0.5882017623320337</v>
+        <v>0.1819025685227587</v>
       </c>
       <c r="D12">
-        <v>0.2773309621702822</v>
+        <v>0.4635886849880961</v>
       </c>
       <c r="E12">
-        <v>0.04460194746459578</v>
+        <v>0.1340845674813398</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007941296738591382</v>
+        <v>0.002501257932054029</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5641284049914148</v>
+        <v>1.214506584844656</v>
       </c>
       <c r="J12">
-        <v>0.05666211115168096</v>
+        <v>0.0571752037827693</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3843855233830595</v>
+        <v>0.4772504994427891</v>
       </c>
       <c r="M12">
-        <v>0.7298547070322883</v>
+        <v>0.4813074220961155</v>
       </c>
       <c r="N12">
-        <v>0.7307864887302387</v>
+        <v>1.758338883314298</v>
       </c>
       <c r="O12">
-        <v>3.545778436631423</v>
+        <v>5.650834795933974</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.778041879997147</v>
+        <v>1.90579228442175</v>
       </c>
       <c r="C13">
-        <v>0.5851447227424273</v>
+        <v>0.1809893340652593</v>
       </c>
       <c r="D13">
-        <v>0.2765007832386743</v>
+        <v>0.4635141226069948</v>
       </c>
       <c r="E13">
-        <v>0.04463994979558361</v>
+        <v>0.1341236705775462</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007944141766821344</v>
+        <v>0.002501430019450109</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5634305337342411</v>
+        <v>1.214821439242236</v>
       </c>
       <c r="J13">
-        <v>0.05648966564944047</v>
+        <v>0.05711827245050216</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3828023364112596</v>
+        <v>0.4769569040955588</v>
       </c>
       <c r="M13">
-        <v>0.7260618006589041</v>
+        <v>0.4803499805354932</v>
       </c>
       <c r="N13">
-        <v>0.7330656144977503</v>
+        <v>1.759307335959484</v>
       </c>
       <c r="O13">
-        <v>3.535411369590776</v>
+        <v>5.650509458934096</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.711424914193174</v>
+        <v>1.887848173924624</v>
       </c>
       <c r="C14">
-        <v>0.5751824795976574</v>
+        <v>0.178009994556021</v>
       </c>
       <c r="D14">
-        <v>0.2738046872383535</v>
+        <v>0.4632755497492553</v>
       </c>
       <c r="E14">
-        <v>0.04476521071021367</v>
+        <v>0.1342520302771169</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007953439385426751</v>
+        <v>0.002501993913179142</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5611963091868333</v>
+        <v>1.21586328748343</v>
       </c>
       <c r="J14">
-        <v>0.05592756830293411</v>
+        <v>0.05693240024553248</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3776516718793914</v>
+        <v>0.4760038523749586</v>
       </c>
       <c r="M14">
-        <v>0.713708081801137</v>
+        <v>0.4772313170977753</v>
       </c>
       <c r="N14">
-        <v>0.7405379071463329</v>
+        <v>1.762481371460385</v>
       </c>
       <c r="O14">
-        <v>3.501834090315327</v>
+        <v>5.649522601936212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.67067039346756</v>
+        <v>1.876865732993849</v>
       </c>
       <c r="C15">
-        <v>0.56908587344941</v>
+        <v>0.1761842326882572</v>
       </c>
       <c r="D15">
-        <v>0.2721618402640331</v>
+        <v>0.4631329462623768</v>
       </c>
       <c r="E15">
-        <v>0.04484295172764252</v>
+        <v>0.1343312969190844</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007959149457612396</v>
+        <v>0.002502341374766677</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5598594813663027</v>
+        <v>1.216513005528171</v>
       </c>
       <c r="J15">
-        <v>0.05558347785785145</v>
+        <v>0.05681838933485039</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3745061875100646</v>
+        <v>0.47542348417862</v>
       </c>
       <c r="M15">
-        <v>0.7061529905423143</v>
+        <v>0.4753239406848806</v>
       </c>
       <c r="N15">
-        <v>0.7451450982803678</v>
+        <v>1.764437624463561</v>
       </c>
       <c r="O15">
-        <v>3.481443191720103</v>
+        <v>5.648975089272028</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.437854581953502</v>
+        <v>1.814066374297511</v>
       </c>
       <c r="C16">
-        <v>0.5342277143349747</v>
+        <v>0.1657088909655045</v>
       </c>
       <c r="D16">
-        <v>0.2628752890987869</v>
+        <v>0.4623698893852861</v>
       </c>
       <c r="E16">
-        <v>0.04530382453089654</v>
+        <v>0.1347954006732115</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007992106988272588</v>
+        <v>0.002504364174827534</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5526710818479401</v>
+        <v>1.22041336469664</v>
       </c>
       <c r="J16">
-        <v>0.05361451627573288</v>
+        <v>0.05616260695645536</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3566205391748838</v>
+        <v>0.4721498812742766</v>
       </c>
       <c r="M16">
-        <v>0.6630323274132834</v>
+        <v>0.4644380966736463</v>
       </c>
       <c r="N16">
-        <v>0.7720014241225144</v>
+        <v>1.775833026757869</v>
       </c>
       <c r="O16">
-        <v>3.367206194317106</v>
+        <v>5.646710522363236</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.295641514531269</v>
+        <v>1.775663956850678</v>
       </c>
       <c r="C17">
-        <v>0.5129074282978934</v>
+        <v>0.1592714273241427</v>
       </c>
       <c r="D17">
-        <v>0.2572885230544415</v>
+        <v>0.4619501506631991</v>
       </c>
       <c r="E17">
-        <v>0.04560007090022022</v>
+        <v>0.1350889202435672</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000801254107923089</v>
+        <v>0.002505633388857478</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5486685693132713</v>
+        <v>1.222964091641067</v>
       </c>
       <c r="J17">
-        <v>0.0524088321314764</v>
+        <v>0.05575813816008335</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.345767849639401</v>
+        <v>0.4701883516796244</v>
       </c>
       <c r="M17">
-        <v>0.6367262969283018</v>
+        <v>0.4577999480845634</v>
       </c>
       <c r="N17">
-        <v>0.7888734172218861</v>
+        <v>1.782988722933684</v>
       </c>
       <c r="O17">
-        <v>3.299369131570842</v>
+        <v>5.646100150831387</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.214053359159777</v>
+        <v>1.753621520461309</v>
       </c>
       <c r="C18">
-        <v>0.5006656324018195</v>
+        <v>0.1555646980189351</v>
       </c>
       <c r="D18">
-        <v>0.2541141574690471</v>
+        <v>0.4617265269874906</v>
       </c>
       <c r="E18">
-        <v>0.04577535389962151</v>
+        <v>0.1352609853866236</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008024375681667363</v>
+        <v>0.002506373828357498</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5465106512970479</v>
+        <v>1.224489246425286</v>
       </c>
       <c r="J18">
-        <v>0.05171602817801002</v>
+        <v>0.05552470283477007</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3395676064614577</v>
+        <v>0.4690773383278071</v>
       </c>
       <c r="M18">
-        <v>0.6216465076808433</v>
+        <v>0.4539966279082108</v>
       </c>
       <c r="N18">
-        <v>0.7987200090021389</v>
+        <v>1.787165118394839</v>
       </c>
       <c r="O18">
-        <v>3.261141018167791</v>
+        <v>5.646035259700739</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.186463457300249</v>
+        <v>1.746166206349812</v>
       </c>
       <c r="C19">
-        <v>0.4965241618316441</v>
+        <v>0.1543089677015814</v>
       </c>
       <c r="D19">
-        <v>0.2530459292858467</v>
+        <v>0.4616538709651223</v>
       </c>
       <c r="E19">
-        <v>0.04583553442663568</v>
+        <v>0.1353198006111</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008028396865605269</v>
+        <v>0.002506626320826747</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5458042826399137</v>
+        <v>1.22501560543877</v>
       </c>
       <c r="J19">
-        <v>0.05148155965717294</v>
+        <v>0.05544552909874767</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3374753283851106</v>
+        <v>0.4687041270818355</v>
       </c>
       <c r="M19">
-        <v>0.6165491601834248</v>
+        <v>0.4527114330048221</v>
       </c>
       <c r="N19">
-        <v>0.8020780121422</v>
+        <v>1.788589586827193</v>
       </c>
       <c r="O19">
-        <v>3.248330128934725</v>
+        <v>5.646062435170393</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.310758354427776</v>
+        <v>1.779747248176307</v>
       </c>
       <c r="C20">
-        <v>0.51517477409962</v>
+        <v>0.1599571284657202</v>
       </c>
       <c r="D20">
-        <v>0.2578791745676483</v>
+        <v>0.4619929909497245</v>
       </c>
       <c r="E20">
-        <v>0.0455680271732728</v>
+        <v>0.1350573392986281</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008010357453404483</v>
+        <v>0.002505497200876161</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.549079596354261</v>
+        <v>1.222686554736931</v>
       </c>
       <c r="J20">
-        <v>0.05253710649602539</v>
+        <v>0.0558012769147993</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3469187523674293</v>
+        <v>0.470395379876706</v>
       </c>
       <c r="M20">
-        <v>0.6395212938718231</v>
+        <v>0.458505063791435</v>
       </c>
       <c r="N20">
-        <v>0.7870625644095171</v>
+        <v>1.782220711986362</v>
       </c>
       <c r="O20">
-        <v>3.306507980876518</v>
+        <v>5.646135506337885</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.730981355491224</v>
+        <v>1.893116953282629</v>
       </c>
       <c r="C21">
-        <v>0.5781074592042046</v>
+        <v>0.1788852720546572</v>
       </c>
       <c r="D21">
-        <v>0.2745947968638376</v>
+        <v>0.463344889006791</v>
       </c>
       <c r="E21">
-        <v>0.04472820654211684</v>
+        <v>0.1342141940220571</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007950705333963469</v>
+        <v>0.002501827854581418</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.561845916272361</v>
+        <v>1.215554863078253</v>
       </c>
       <c r="J21">
-        <v>0.05609262523107006</v>
+        <v>0.05698702852100723</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3791625662631759</v>
+        <v>0.4762830776872278</v>
       </c>
       <c r="M21">
-        <v>0.7173341648391443</v>
+        <v>0.4781467412798861</v>
       </c>
       <c r="N21">
-        <v>0.7383368002644559</v>
+        <v>1.76154656601274</v>
       </c>
       <c r="O21">
-        <v>3.511659633746376</v>
+        <v>5.649800593850671</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.007829131683707</v>
+        <v>1.967607648748583</v>
       </c>
       <c r="C22">
-        <v>0.6194794771478769</v>
+        <v>0.1912188451219379</v>
       </c>
       <c r="D22">
-        <v>0.2858997355830724</v>
+        <v>0.4643864547853696</v>
       </c>
       <c r="E22">
-        <v>0.04422455789062685</v>
+        <v>0.1336919225237905</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007912397062149553</v>
+        <v>0.002499522011528193</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.571593266763756</v>
+        <v>1.211411067638892</v>
       </c>
       <c r="J22">
-        <v>0.05842540029425081</v>
+        <v>0.05775488007419582</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.400653072307918</v>
+        <v>0.4802834613201696</v>
       </c>
       <c r="M22">
-        <v>0.7687137395743662</v>
+        <v>0.4911135027716114</v>
       </c>
       <c r="N22">
-        <v>0.7078337852145147</v>
+        <v>1.748574789597559</v>
       </c>
       <c r="O22">
-        <v>3.653527882241548</v>
+        <v>5.654745450286327</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.85985064362734</v>
+        <v>1.927814677552533</v>
       </c>
       <c r="C23">
-        <v>0.5973735531130728</v>
+        <v>0.1846396157820891</v>
       </c>
       <c r="D23">
-        <v>0.2798296032663501</v>
+        <v>0.4638161154208973</v>
       </c>
       <c r="E23">
-        <v>0.04448914209487054</v>
+        <v>0.13396803995425</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000793278328689589</v>
+        <v>0.002500744264033562</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5662564091823583</v>
+        <v>1.213575352726281</v>
       </c>
       <c r="J23">
-        <v>0.05717937202977907</v>
+        <v>0.05734571444864756</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.389142773435168</v>
+        <v>0.4781344718226137</v>
       </c>
       <c r="M23">
-        <v>0.7412398288921267</v>
+        <v>0.4841811050607063</v>
       </c>
       <c r="N23">
-        <v>0.7239872094481896</v>
+        <v>1.755448658194346</v>
       </c>
       <c r="O23">
-        <v>3.577059021716366</v>
+        <v>5.651872951886958</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.303923498999154</v>
+        <v>1.777901081094114</v>
       </c>
       <c r="C24">
-        <v>0.5141496593025465</v>
+        <v>0.1596471408697937</v>
       </c>
       <c r="D24">
-        <v>0.2576120244449243</v>
+        <v>0.4619735677501637</v>
       </c>
       <c r="E24">
-        <v>0.04558249868925568</v>
+        <v>0.135071606711425</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008011344399599413</v>
+        <v>0.002505558737912718</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5488933263458691</v>
+        <v>1.22281184629913</v>
       </c>
       <c r="J24">
-        <v>0.05247911256736515</v>
+        <v>0.05578177669000084</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3463983078898849</v>
+        <v>0.4703017304136381</v>
       </c>
       <c r="M24">
-        <v>0.6382575398017281</v>
+        <v>0.4581862403431174</v>
       </c>
       <c r="N24">
-        <v>0.7878807949710875</v>
+        <v>1.782567735076757</v>
       </c>
       <c r="O24">
-        <v>3.303278109650847</v>
+        <v>5.646118631175312</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.712087397496305</v>
+        <v>1.617943931600166</v>
       </c>
       <c r="C25">
-        <v>0.4251583593244845</v>
+        <v>0.1325334753366008</v>
       </c>
       <c r="D25">
-        <v>0.235121115031518</v>
+        <v>0.4606668351328551</v>
       </c>
       <c r="E25">
-        <v>0.04694796794661826</v>
+        <v>0.1363859233831501</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008099223434803861</v>
+        <v>0.002511150679933397</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5356192433577363</v>
+        <v>1.234993867542258</v>
       </c>
       <c r="J25">
-        <v>0.04743341213565699</v>
+        <v>0.05406440696852499</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3018731297420203</v>
+        <v>0.4625111223802207</v>
       </c>
       <c r="M25">
-        <v>0.5290787379482751</v>
+        <v>0.4307120616926596</v>
       </c>
       <c r="N25">
-        <v>0.8622024263341075</v>
+        <v>1.814138050514401</v>
       </c>
       <c r="O25">
-        <v>3.037791242466028</v>
+        <v>5.650851973848262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_120/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.501692279645511</v>
+        <v>2.281286958730959</v>
       </c>
       <c r="C2">
-        <v>0.1124359296681519</v>
+        <v>0.360031678764841</v>
       </c>
       <c r="D2">
-        <v>0.4602920812456688</v>
+        <v>0.2196648595518553</v>
       </c>
       <c r="E2">
-        <v>0.1374608553934742</v>
+        <v>0.04810537425665906</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002515614509111651</v>
+        <v>0.0008166871485446881</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.245871032244658</v>
+        <v>0.5299568679594628</v>
       </c>
       <c r="J2">
-        <v>0.05277358531352405</v>
+        <v>0.04372395142987173</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4573435427471964</v>
+        <v>0.2702307990130919</v>
       </c>
       <c r="M2">
-        <v>0.4109732708810228</v>
+        <v>0.4499619638758432</v>
       </c>
       <c r="N2">
-        <v>1.839380720024081</v>
+        <v>0.9212185852771988</v>
       </c>
       <c r="O2">
-        <v>5.663734183809282</v>
+        <v>2.864285070709457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.423870602517582</v>
+        <v>1.991638073889192</v>
       </c>
       <c r="C3">
-        <v>0.09873227098901793</v>
+        <v>0.3160210327205846</v>
       </c>
       <c r="D3">
-        <v>0.4604055823394049</v>
+        <v>0.2098039503352425</v>
       </c>
       <c r="E3">
-        <v>0.1382565314790041</v>
+        <v>0.04898089869848654</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002518857635303794</v>
+        <v>0.0008214664966231721</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.254432228943763</v>
+        <v>0.5284211792116444</v>
       </c>
       <c r="J3">
-        <v>0.05188228727547894</v>
+        <v>0.04120679489747303</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4541975564808354</v>
+        <v>0.2493998253894034</v>
       </c>
       <c r="M3">
-        <v>0.3979044180125655</v>
+        <v>0.3969720996098971</v>
       </c>
       <c r="N3">
-        <v>1.85773601711918</v>
+        <v>0.9637325723295973</v>
       </c>
       <c r="O3">
-        <v>5.678321474904408</v>
+        <v>2.758738730122644</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.376568396255436</v>
+        <v>1.814695445557902</v>
       </c>
       <c r="C4">
-        <v>0.09027729789096384</v>
+        <v>0.289024494826208</v>
       </c>
       <c r="D4">
-        <v>0.4606569422611955</v>
+        <v>0.2040294761765153</v>
       </c>
       <c r="E4">
-        <v>0.1387783211297791</v>
+        <v>0.04956228970512733</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002520957021512313</v>
+        <v>0.0008245005383522141</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.260275576457769</v>
+        <v>0.5285334439837115</v>
       </c>
       <c r="J4">
-        <v>0.05132687694776195</v>
+        <v>0.03965765771866359</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4524421558532481</v>
+        <v>0.2368822983980508</v>
       </c>
       <c r="M4">
-        <v>0.3900332372893729</v>
+        <v>0.3646967081112962</v>
       </c>
       <c r="N4">
-        <v>1.869622494322012</v>
+        <v>0.9910293208711565</v>
       </c>
       <c r="O4">
-        <v>5.690166051093229</v>
+        <v>2.699365991762988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.357414485448572</v>
+        <v>1.742785352095808</v>
       </c>
       <c r="C5">
-        <v>0.08682165277384968</v>
+        <v>0.2780249341046925</v>
       </c>
       <c r="D5">
-        <v>0.4608051330775425</v>
+        <v>0.2017436489663709</v>
       </c>
       <c r="E5">
-        <v>0.1389993278085297</v>
+        <v>0.04981006660320819</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002521839801745741</v>
+        <v>0.0008257624293977691</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.262804328537559</v>
+        <v>0.5288333039462465</v>
       </c>
       <c r="J5">
-        <v>0.05109849519933718</v>
+        <v>0.03902520038861468</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4517712541051893</v>
+        <v>0.2318458320963828</v>
       </c>
       <c r="M5">
-        <v>0.3868644180382148</v>
+        <v>0.3516031069238466</v>
       </c>
       <c r="N5">
-        <v>1.874621350817119</v>
+        <v>1.002445933344113</v>
       </c>
       <c r="O5">
-        <v>5.695719031355821</v>
+        <v>2.676466972348351</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.354241406415468</v>
+        <v>1.730855653854235</v>
       </c>
       <c r="C6">
-        <v>0.08624723402621726</v>
+        <v>0.276198435413292</v>
       </c>
       <c r="D6">
-        <v>0.4608325060948317</v>
+        <v>0.201368066450172</v>
       </c>
       <c r="E6">
-        <v>0.1390365319400955</v>
+        <v>0.0498518607977072</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002521988035915427</v>
+        <v>0.0008259735186497706</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.263233137016528</v>
+        <v>0.5288981260031882</v>
       </c>
       <c r="J6">
-        <v>0.05106044897116035</v>
+        <v>0.0389201030780022</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4516625388640136</v>
+        <v>0.2310133135021459</v>
       </c>
       <c r="M6">
-        <v>0.3863405855652999</v>
+        <v>0.3494322938848882</v>
       </c>
       <c r="N6">
-        <v>1.875460771803013</v>
+        <v>1.004359149473867</v>
       </c>
       <c r="O6">
-        <v>5.696684962341436</v>
+        <v>2.672740887996696</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.376309583767323</v>
+        <v>1.813724889851784</v>
       </c>
       <c r="C7">
-        <v>0.09023073491309219</v>
+        <v>0.2888761499991688</v>
       </c>
       <c r="D7">
-        <v>0.4606587554329877</v>
+        <v>0.2039983801640659</v>
       </c>
       <c r="E7">
-        <v>0.1387812677813294</v>
+        <v>0.04956558756699092</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00252096881655639</v>
+        <v>0.00082451745285482</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.260309082708137</v>
+        <v>0.5285364735197184</v>
       </c>
       <c r="J7">
-        <v>0.0513238051997007</v>
+        <v>0.03964913326260344</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.452432927750209</v>
+        <v>0.2368141187886081</v>
       </c>
       <c r="M7">
-        <v>0.3899903442650512</v>
+        <v>0.3645198933155953</v>
       </c>
       <c r="N7">
-        <v>1.869689282898449</v>
+        <v>0.9911821120856459</v>
       </c>
       <c r="O7">
-        <v>5.690238000064653</v>
+        <v>2.699052010958439</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.474760345682682</v>
+        <v>2.181208924553516</v>
       </c>
       <c r="C8">
-        <v>0.1077194484501263</v>
+        <v>0.3448483576626415</v>
       </c>
       <c r="D8">
-        <v>0.4602935561894128</v>
+        <v>0.2162047310017243</v>
       </c>
       <c r="E8">
-        <v>0.1377283139260443</v>
+        <v>0.04839806117235046</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00251671035379488</v>
+        <v>0.0008183147082615201</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.248701154871959</v>
+        <v>0.5292014188568146</v>
       </c>
       <c r="J8">
-        <v>0.05246795807444826</v>
+        <v>0.04285661426153098</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4562222960473861</v>
+        <v>0.2629891413453151</v>
       </c>
       <c r="M8">
-        <v>0.4064354838739348</v>
+        <v>0.4316328333220696</v>
       </c>
       <c r="N8">
-        <v>1.845581760175705</v>
+        <v>0.9356254668455968</v>
       </c>
       <c r="O8">
-        <v>5.668164498895976</v>
+        <v>2.826721482719904</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.671590539382919</v>
+        <v>2.91056563817159</v>
       </c>
       <c r="C9">
-        <v>0.1416875575050085</v>
+        <v>0.4550563258866305</v>
       </c>
       <c r="D9">
-        <v>0.4610159011814545</v>
+        <v>0.2425153117575434</v>
       </c>
       <c r="E9">
-        <v>0.1359265810849237</v>
+        <v>0.04646387820250997</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002509213436662387</v>
+        <v>0.0008069179652322884</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.230593959584411</v>
+        <v>0.5394151003146774</v>
       </c>
       <c r="J9">
-        <v>0.05464698556870218</v>
+        <v>0.04913122671242576</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4650472539212558</v>
+        <v>0.3166803288912092</v>
       </c>
       <c r="M9">
-        <v>0.4398909193712299</v>
+        <v>0.56563514300192</v>
       </c>
       <c r="N9">
-        <v>1.803193495740185</v>
+        <v>0.8364776441422457</v>
       </c>
       <c r="O9">
-        <v>5.647797076676113</v>
+        <v>3.123574021066673</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.81845450742037</v>
+        <v>3.45411153967143</v>
       </c>
       <c r="C10">
-        <v>0.1664428960120574</v>
+        <v>0.5366635390028875</v>
       </c>
       <c r="D10">
-        <v>0.4624201946827355</v>
+        <v>0.2635181703270462</v>
       </c>
       <c r="E10">
-        <v>0.1347623468544104</v>
+        <v>0.04527068888321129</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00250422075908031</v>
+        <v>0.0007989786196944664</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.220130175184977</v>
+        <v>0.5531477304840777</v>
       </c>
       <c r="J10">
-        <v>0.0562086517862781</v>
+        <v>0.0537521943995678</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4723760342987049</v>
+        <v>0.3578647326954041</v>
       </c>
       <c r="M10">
-        <v>0.465197550793512</v>
+        <v>0.6660411414960947</v>
       </c>
       <c r="N10">
-        <v>1.775024727597479</v>
+        <v>0.7700957367862387</v>
       </c>
       <c r="O10">
-        <v>5.646818951898439</v>
+        <v>3.375056390658045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.885747469606599</v>
+        <v>3.703628452145438</v>
       </c>
       <c r="C11">
-        <v>0.1776609021820832</v>
+        <v>0.5740162975518501</v>
       </c>
       <c r="D11">
-        <v>0.4632480702198478</v>
+        <v>0.2734900182556004</v>
       </c>
       <c r="E11">
-        <v>0.1342671503615547</v>
+        <v>0.04478001712166613</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002502060236388104</v>
+        <v>0.0007954530431631532</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.215986848062244</v>
+        <v>0.5609387979147158</v>
       </c>
       <c r="J11">
-        <v>0.05691060728812403</v>
+        <v>0.05586175548777206</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4758926662656648</v>
+        <v>0.3770496028504198</v>
       </c>
       <c r="M11">
-        <v>0.476866396477611</v>
+        <v>0.7122626170707136</v>
       </c>
       <c r="N11">
-        <v>1.762854751323491</v>
+        <v>0.7414171591762333</v>
       </c>
       <c r="O11">
-        <v>5.649414522001308</v>
+        <v>3.49792434960159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.911298077970287</v>
+        <v>3.798489359512018</v>
       </c>
       <c r="C12">
-        <v>0.1819025685227587</v>
+        <v>0.5882017623318916</v>
       </c>
       <c r="D12">
-        <v>0.4635886849880961</v>
+        <v>0.2773309621702964</v>
       </c>
       <c r="E12">
-        <v>0.1340845674813398</v>
+        <v>0.04460194746457624</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002501257932054029</v>
+        <v>0.0007941296738218492</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.214506584844656</v>
+        <v>0.5641284049914432</v>
       </c>
       <c r="J12">
-        <v>0.0571752037827693</v>
+        <v>0.05666211115176978</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4772504994427891</v>
+        <v>0.3843855233830027</v>
       </c>
       <c r="M12">
-        <v>0.4813074220961155</v>
+        <v>0.7298547070322812</v>
       </c>
       <c r="N12">
-        <v>1.758338883314298</v>
+        <v>0.7307864887302387</v>
       </c>
       <c r="O12">
-        <v>5.650834795933974</v>
+        <v>3.545778436631508</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.90579228442175</v>
+        <v>3.778041879997204</v>
       </c>
       <c r="C13">
-        <v>0.1809893340652593</v>
+        <v>0.5851447227425979</v>
       </c>
       <c r="D13">
-        <v>0.4635141226069948</v>
+        <v>0.2765007832386601</v>
       </c>
       <c r="E13">
-        <v>0.1341236705775462</v>
+        <v>0.04463994979561559</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002501430019450109</v>
+        <v>0.0007944141766813207</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.214821439242236</v>
+        <v>0.5634305337342553</v>
       </c>
       <c r="J13">
-        <v>0.05711827245050216</v>
+        <v>0.05648966564944757</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4769569040955588</v>
+        <v>0.3828023364112454</v>
       </c>
       <c r="M13">
-        <v>0.4803499805354932</v>
+        <v>0.7260618006588899</v>
       </c>
       <c r="N13">
-        <v>1.759307335959484</v>
+        <v>0.7330656144977574</v>
       </c>
       <c r="O13">
-        <v>5.650509458934096</v>
+        <v>3.535411369590889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.887848173924624</v>
+        <v>3.711424914193287</v>
       </c>
       <c r="C14">
-        <v>0.178009994556021</v>
+        <v>0.5751824795977711</v>
       </c>
       <c r="D14">
-        <v>0.4632755497492553</v>
+        <v>0.2738046872383535</v>
       </c>
       <c r="E14">
-        <v>0.1342520302771169</v>
+        <v>0.04476521071021278</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002501993913179142</v>
+        <v>0.0007953439385428585</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.21586328748343</v>
+        <v>0.5611963091868546</v>
       </c>
       <c r="J14">
-        <v>0.05693240024553248</v>
+        <v>0.05592756830287726</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4760038523749586</v>
+        <v>0.3776516718792777</v>
       </c>
       <c r="M14">
-        <v>0.4772313170977753</v>
+        <v>0.7137080818011441</v>
       </c>
       <c r="N14">
-        <v>1.762481371460385</v>
+        <v>0.74053790714634</v>
       </c>
       <c r="O14">
-        <v>5.649522601936212</v>
+        <v>3.50183409031527</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.876865732993849</v>
+        <v>3.670670393467901</v>
       </c>
       <c r="C15">
-        <v>0.1761842326882572</v>
+        <v>0.5690858734495805</v>
       </c>
       <c r="D15">
-        <v>0.4631329462623768</v>
+        <v>0.2721618402641042</v>
       </c>
       <c r="E15">
-        <v>0.1343312969190844</v>
+        <v>0.04484295172762209</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002502341374766677</v>
+        <v>0.0007959149457900747</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.216513005528171</v>
+        <v>0.5598594813662956</v>
       </c>
       <c r="J15">
-        <v>0.05681838933485039</v>
+        <v>0.05558347785781592</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.47542348417862</v>
+        <v>0.3745061875101356</v>
       </c>
       <c r="M15">
-        <v>0.4753239406848806</v>
+        <v>0.706152990542293</v>
       </c>
       <c r="N15">
-        <v>1.764437624463561</v>
+        <v>0.7451450982803713</v>
       </c>
       <c r="O15">
-        <v>5.648975089272028</v>
+        <v>3.481443191720103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.814066374297511</v>
+        <v>3.437854581953502</v>
       </c>
       <c r="C16">
-        <v>0.1657088909655045</v>
+        <v>0.534227714334861</v>
       </c>
       <c r="D16">
-        <v>0.4623698893852861</v>
+        <v>0.2628752890987727</v>
       </c>
       <c r="E16">
-        <v>0.1347954006732115</v>
+        <v>0.04530382453091075</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002504364174827534</v>
+        <v>0.0007992106988606862</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.22041336469664</v>
+        <v>0.5526710818479543</v>
       </c>
       <c r="J16">
-        <v>0.05616260695645536</v>
+        <v>0.05361451627569025</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4721498812742766</v>
+        <v>0.3566205391748838</v>
       </c>
       <c r="M16">
-        <v>0.4644380966736463</v>
+        <v>0.6630323274132834</v>
       </c>
       <c r="N16">
-        <v>1.775833026757869</v>
+        <v>0.7720014241225748</v>
       </c>
       <c r="O16">
-        <v>5.646710522363236</v>
+        <v>3.367206194317077</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.775663956850678</v>
+        <v>3.295641514531326</v>
       </c>
       <c r="C17">
-        <v>0.1592714273241427</v>
+        <v>0.5129074282977797</v>
       </c>
       <c r="D17">
-        <v>0.4619501506631991</v>
+        <v>0.2572885230543278</v>
       </c>
       <c r="E17">
-        <v>0.1350889202435672</v>
+        <v>0.04560007090021845</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002505633388857478</v>
+        <v>0.0008012541079518194</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.222964091641067</v>
+        <v>0.54866856931325</v>
       </c>
       <c r="J17">
-        <v>0.05575813816008335</v>
+        <v>0.05240883213143022</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4701883516796244</v>
+        <v>0.3457678496393584</v>
       </c>
       <c r="M17">
-        <v>0.4577999480845634</v>
+        <v>0.6367262969282805</v>
       </c>
       <c r="N17">
-        <v>1.782988722933684</v>
+        <v>0.7888734172219358</v>
       </c>
       <c r="O17">
-        <v>5.646100150831387</v>
+        <v>3.299369131570842</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.753621520461309</v>
+        <v>3.21405335915972</v>
       </c>
       <c r="C18">
-        <v>0.1555646980189351</v>
+        <v>0.5006656324015921</v>
       </c>
       <c r="D18">
-        <v>0.4617265269874906</v>
+        <v>0.2541141574690329</v>
       </c>
       <c r="E18">
-        <v>0.1352609853866236</v>
+        <v>0.04577535389962151</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002506373828357498</v>
+        <v>0.0008024375681366909</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.224489246425286</v>
+        <v>0.5465106512970479</v>
       </c>
       <c r="J18">
-        <v>0.05552470283477007</v>
+        <v>0.05171602817803134</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4690773383278071</v>
+        <v>0.3395676064614435</v>
       </c>
       <c r="M18">
-        <v>0.4539966279082108</v>
+        <v>0.6216465076808504</v>
       </c>
       <c r="N18">
-        <v>1.787165118394839</v>
+        <v>0.7987200090021176</v>
       </c>
       <c r="O18">
-        <v>5.646035259700739</v>
+        <v>3.261141018167791</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.746166206349812</v>
+        <v>3.186463457300192</v>
       </c>
       <c r="C19">
-        <v>0.1543089677015814</v>
+        <v>0.4965241618316725</v>
       </c>
       <c r="D19">
-        <v>0.4616538709651223</v>
+        <v>0.2530459292856904</v>
       </c>
       <c r="E19">
-        <v>0.1353198006111</v>
+        <v>0.04583553442663213</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002506626320826747</v>
+        <v>0.0008028396865299457</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.22501560543877</v>
+        <v>0.5458042826399065</v>
       </c>
       <c r="J19">
-        <v>0.05544552909874767</v>
+        <v>0.0514815596571907</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4687041270818355</v>
+        <v>0.3374753283850964</v>
       </c>
       <c r="M19">
-        <v>0.4527114330048221</v>
+        <v>0.6165491601834248</v>
       </c>
       <c r="N19">
-        <v>1.788589586827193</v>
+        <v>0.8020780121421858</v>
       </c>
       <c r="O19">
-        <v>5.646062435170393</v>
+        <v>3.248330128934725</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.779747248176307</v>
+        <v>3.310758354427662</v>
       </c>
       <c r="C20">
-        <v>0.1599571284657202</v>
+        <v>0.5151747740996768</v>
       </c>
       <c r="D20">
-        <v>0.4619929909497245</v>
+        <v>0.2578791745676483</v>
       </c>
       <c r="E20">
-        <v>0.1350573392986281</v>
+        <v>0.04556802717325592</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002505497200876161</v>
+        <v>0.0008010357453402262</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.222686554736931</v>
+        <v>0.5490795963542539</v>
       </c>
       <c r="J20">
-        <v>0.0558012769147993</v>
+        <v>0.05253710649610355</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.470395379876706</v>
+        <v>0.3469187523674435</v>
       </c>
       <c r="M20">
-        <v>0.458505063791435</v>
+        <v>0.6395212938718231</v>
       </c>
       <c r="N20">
-        <v>1.782220711986362</v>
+        <v>0.7870625644095242</v>
       </c>
       <c r="O20">
-        <v>5.646135506337885</v>
+        <v>3.306507980876603</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.893116953282629</v>
+        <v>3.73098135549111</v>
       </c>
       <c r="C21">
-        <v>0.1788852720546572</v>
+        <v>0.5781074592040625</v>
       </c>
       <c r="D21">
-        <v>0.463344889006791</v>
+        <v>0.2745947968636244</v>
       </c>
       <c r="E21">
-        <v>0.1342141940220571</v>
+        <v>0.04472820654211507</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002501827854581418</v>
+        <v>0.0007950705334247466</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.215554863078253</v>
+        <v>0.5618459162723752</v>
       </c>
       <c r="J21">
-        <v>0.05698702852100723</v>
+        <v>0.05609262523110203</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4762830776872278</v>
+        <v>0.379162566263247</v>
       </c>
       <c r="M21">
-        <v>0.4781467412798861</v>
+        <v>0.7173341648391656</v>
       </c>
       <c r="N21">
-        <v>1.76154656601274</v>
+        <v>0.7383368002645057</v>
       </c>
       <c r="O21">
-        <v>5.649800593850671</v>
+        <v>3.511659633746433</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.967607648748583</v>
+        <v>4.007829131683707</v>
       </c>
       <c r="C22">
-        <v>0.1912188451219379</v>
+        <v>0.6194794771478769</v>
       </c>
       <c r="D22">
-        <v>0.4643864547853696</v>
+        <v>0.2858997355830866</v>
       </c>
       <c r="E22">
-        <v>0.1336919225237905</v>
+        <v>0.04422455789062685</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002499522011528193</v>
+        <v>0.0007912397062513594</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.211411067638892</v>
+        <v>0.5715932667637347</v>
       </c>
       <c r="J22">
-        <v>0.05775488007419582</v>
+        <v>0.05842540029419396</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4802834613201696</v>
+        <v>0.4006530723078896</v>
       </c>
       <c r="M22">
-        <v>0.4911135027716114</v>
+        <v>0.7687137395743591</v>
       </c>
       <c r="N22">
-        <v>1.748574789597559</v>
+        <v>0.7078337852144436</v>
       </c>
       <c r="O22">
-        <v>5.654745450286327</v>
+        <v>3.653527882241491</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.927814677552533</v>
+        <v>3.859850643627169</v>
       </c>
       <c r="C23">
-        <v>0.1846396157820891</v>
+        <v>0.5973735531129307</v>
       </c>
       <c r="D23">
-        <v>0.4638161154208973</v>
+        <v>0.279829603266279</v>
       </c>
       <c r="E23">
-        <v>0.13396803995425</v>
+        <v>0.04448914209488031</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002500744264033562</v>
+        <v>0.0007932783286517395</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.213575352726281</v>
+        <v>0.5662564091823796</v>
       </c>
       <c r="J23">
-        <v>0.05734571444864756</v>
+        <v>0.05717937202978263</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4781344718226137</v>
+        <v>0.3891427734350685</v>
       </c>
       <c r="M23">
-        <v>0.4841811050607063</v>
+        <v>0.7412398288921196</v>
       </c>
       <c r="N23">
-        <v>1.755448658194346</v>
+        <v>0.7239872094482251</v>
       </c>
       <c r="O23">
-        <v>5.651872951886958</v>
+        <v>3.577059021716451</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.777901081094114</v>
+        <v>3.303923498999211</v>
       </c>
       <c r="C24">
-        <v>0.1596471408697937</v>
+        <v>0.514149659302916</v>
       </c>
       <c r="D24">
-        <v>0.4619735677501637</v>
+        <v>0.2576120244448816</v>
       </c>
       <c r="E24">
-        <v>0.135071606711425</v>
+        <v>0.04558249868926012</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002505558737912718</v>
+        <v>0.0008011344399607897</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.22281184629913</v>
+        <v>0.5488933263458833</v>
       </c>
       <c r="J24">
-        <v>0.05578177669000084</v>
+        <v>0.05247911256737225</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4703017304136381</v>
+        <v>0.3463983078899275</v>
       </c>
       <c r="M24">
-        <v>0.4581862403431174</v>
+        <v>0.638257539801721</v>
       </c>
       <c r="N24">
-        <v>1.782567735076757</v>
+        <v>0.7878807949710875</v>
       </c>
       <c r="O24">
-        <v>5.646118631175312</v>
+        <v>3.303278109650762</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.617943931600166</v>
+        <v>2.712087397496305</v>
       </c>
       <c r="C25">
-        <v>0.1325334753366008</v>
+        <v>0.4251583593242287</v>
       </c>
       <c r="D25">
-        <v>0.4606668351328551</v>
+        <v>0.2351211150315464</v>
       </c>
       <c r="E25">
-        <v>0.1363859233831501</v>
+        <v>0.04694796794662981</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002511150679933397</v>
+        <v>0.0008099223434185834</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.234993867542258</v>
+        <v>0.5356192433577505</v>
       </c>
       <c r="J25">
-        <v>0.05406440696852499</v>
+        <v>0.04743341213558594</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4625111223802207</v>
+        <v>0.3018731297420629</v>
       </c>
       <c r="M25">
-        <v>0.4307120616926596</v>
+        <v>0.5290787379482751</v>
       </c>
       <c r="N25">
-        <v>1.814138050514401</v>
+        <v>0.8622024263341039</v>
       </c>
       <c r="O25">
-        <v>5.650851973848262</v>
+        <v>3.037791242466056</v>
       </c>
     </row>
   </sheetData>
